--- a/biology/Médecine/Hypervitaminose_D/Hypervitaminose_D.xlsx
+++ b/biology/Médecine/Hypervitaminose_D/Hypervitaminose_D.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hypervitaminose D est la conséquence d'une administration trop importante en vitamine D, que cela soit comme additif alimentaire ou comme médicament.
-L'administration de vitamine D à 1000 µg (40 000 unités)/jour induit des effets toxiques chez le nourrisson en 1 à 4 mois. Chez l'adulte, l'administration de 1250 µg (50 000 unités)/jour pendant plusieurs mois peut entraîner une intoxication[1].
+L'administration de vitamine D à 1000 µg (40 000 unités)/jour induit des effets toxiques chez le nourrisson en 1 à 4 mois. Chez l'adulte, l'administration de 1250 µg (50 000 unités)/jour pendant plusieurs mois peut entraîner une intoxication.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hypervitaminose D ne peut pas être causée par un excès de vitamine D dans l'alimentation ou l'excès d'exposition au soleil.
-Elle est provoquée par la prise excessive de suppléments de vitamine D[2].
+Elle est provoquée par la prise excessive de suppléments de vitamine D.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Signes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au-delà des apports nutritionnels conseillés, la vitamine D peut devenir toxique et être à l'origine d'un amaigrissement, d'une perte d'appétit, de nausées, d’arrêt de croissance de l'enfant, de polyurie, de polydipsie, d'insuffisance rénale fonctionnelle et d'altérations fœtales[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au-delà des apports nutritionnels conseillés, la vitamine D peut devenir toxique et être à l'origine d'un amaigrissement, d'une perte d'appétit, de nausées, d’arrêt de croissance de l'enfant, de polyurie, de polydipsie, d'insuffisance rénale fonctionnelle et d'altérations fœtales.
 </t>
         </is>
       </c>
